--- a/Academic youtube channel.xlsx
+++ b/Academic youtube channel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alahmadizadeh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alahmadizadeh\Desktop\Time-Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174B203-F307-425A-A1CD-E1E4F13311CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBCE89-765E-4BF8-B062-DB2FB4F86FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{4FDA13FD-E02F-498E-85AD-43339A94E5E4}"/>
   </bookViews>
@@ -31,22 +31,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PIPING MANTRA</t>
   </si>
   <si>
     <t>MACH Engineering, LLC</t>
   </si>
+  <si>
+    <t>EIEPD</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,13 +83,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605039CB-0D20-4F3D-8CF4-231115515F28}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,18 +418,29 @@
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://invidious.flokinet.to/channel/UCJbTejCbVp9RgihKA0-Ue6A" xr:uid="{D060AA92-DE53-4EF4-8B5B-47416B4257C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Academic youtube channel.xlsx
+++ b/Academic youtube channel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alahmadizadeh\Desktop\Time-Managment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony\Desktop\Time Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBCE89-765E-4BF8-B062-DB2FB4F86FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D2B14-7499-48B1-8EBB-4DE1E0C81DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{4FDA13FD-E02F-498E-85AD-43339A94E5E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4FDA13FD-E02F-498E-85AD-43339A94E5E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>PIPING MANTRA</t>
   </si>
@@ -43,13 +44,31 @@
   </si>
   <si>
     <t>design</t>
+  </si>
+  <si>
+    <t>matlabprozhe</t>
+  </si>
+  <si>
+    <t>EVO Tutorials</t>
+  </si>
+  <si>
+    <t>http://hamedmaleki.com/matlab.html</t>
+  </si>
+  <si>
+    <t>Hamed Maleki</t>
+  </si>
+  <si>
+    <t>مهندسی برق و کامپیوتر برای خنگ ها       خیلی خوبه</t>
+  </si>
+  <si>
+    <t>Arshadyar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +83,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,10 +112,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -409,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605039CB-0D20-4F3D-8CF4-231115515F28}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -443,4 +477,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C035875B-8CC9-48A0-8C16-08B015CD1BBB}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.youtube.com/channel/UCVzg3gkpmNrXUDe63Xg8QbQ" xr:uid="{84F694EE-FD35-42D4-8F3A-4C3F5C8356AC}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.youtube.com/redirect?event=video_description&amp;v=PpEhgUAByZw&amp;redir_token=Iygch6OLIV0kZXYe7UHgEZUPCIp8MTU3MDY0ODU3NUAxNTcwNTYyMTc1&amp;q=http%3A%2F%2Fhamedmaleki.com%2Fmatlab.html" xr:uid="{54E2506F-81D0-4239-9617-47362A9DA87E}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.youtube.com/channel/UC3Q4q0PttGKNoxo8LMo7sYQ" xr:uid="{760A8504-5CB1-4176-AA3D-41BE8F17BF48}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.youtube.com/channel/UC69N5UmG0LsmRQIEpbHIOGA" xr:uid="{8D87E768-FC81-402B-8CE7-DDCE4CBB80EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>